--- a/InputData/trans/RPEF/Retail Price Equivalent Factor.xlsx
+++ b/InputData/trans/RPEF/Retail Price Equivalent Factor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\RPEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6F9DBA-5F86-4D47-A20E-CE3EC0656E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39502BE2-C6DB-4BB4-A277-8DB7845D96C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>passenger LDVs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Sources:</t>
   </si>
@@ -83,6 +80,21 @@
   <si>
     <t>Freight</t>
   </si>
+  <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>https://nepis.epa.gov/Exe/ZyNET.exe/P100AGJ1.TXT?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006+Thru+2010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5Czyfiles%5CIndex%20Data%5C06thru10%5CTxt%5C00000025%5CP100AGJ1.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=1&amp;SeekPage=x&amp;ZyPURL</t>
+  </si>
+  <si>
+    <t>Automobile Industry Retail Price Equivalent and Indirect Cost Multipliers</t>
+  </si>
+  <si>
+    <t>Heavy Duty Truck Retail Price Equivalent and Indirect Cost Multipliers</t>
+  </si>
+  <si>
+    <t>https://nepis.epa.gov/Exe/ZyNET.exe/P100XXR3.TXT?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006+Thru+2010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5Czyfiles%5CIndex%20Data%5C06thru10%5CTxt%5C00000042%5CP100XXR3.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=1&amp;SeekPage=x&amp;ZyPURL#</t>
+  </si>
 </sst>
 </file>
 
@@ -91,11 +103,11 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="###0.00_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0_)"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +119,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,12 +354,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -479,6 +477,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -685,437 +689,433 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="154">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="5">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="5">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="23" borderId="12">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="24" borderId="12">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyNumberFormat="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="5">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="5">
-      <alignment horizontal="left"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="154">
-    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="27" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 4" xfId="35" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 5" xfId="36" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 7" xfId="38" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 8" xfId="39" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Corner heading" xfId="40" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Data" xfId="44" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data no deci" xfId="46" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data Superscript" xfId="47" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="48" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="50" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="52" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Good 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Header: bottom row" xfId="55" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Heading 1 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Hed Side" xfId="61" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side bold" xfId="63" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="64" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="65" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Top" xfId="67" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="68" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="69" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Input 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Neutral 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+  <cellStyles count="153">
+    <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 5" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 6" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 7" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 8" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Corner heading" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Good 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header: bottom row" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 1 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side bold" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Top" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Input 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Neutral 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="74" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 11" xfId="75" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 2 3" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 4" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 5" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 6" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 3 7" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 4" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 4" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 6" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4 7" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 5 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 6 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 7" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 7 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 8" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 9" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Note 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Note 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Output 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Parent row" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table title" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Table title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Title 2" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Title Text" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title Text 1" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title Text 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title-1" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title-2" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Title-3" xfId="147" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Total 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Warning Text 2" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Wrap" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Wrap Bold" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap Title" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="153" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Normal 10" xfId="73" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 11" xfId="74" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 3" xfId="77" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3" xfId="78" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="86" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 4" xfId="87" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 5" xfId="89" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 6" xfId="90" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 7" xfId="91" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 5" xfId="103" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 6" xfId="104" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 7" xfId="105" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="106" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 7" xfId="111" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 8" xfId="113" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 9" xfId="114" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Note 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Parent row" xfId="118" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Percent 3" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 4" xfId="124" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Reference" xfId="125" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Row heading" xfId="126" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Source Hed" xfId="127" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Source Letter" xfId="128" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Superscript" xfId="129" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Text" xfId="131" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="State" xfId="133" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Superscript" xfId="134" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Table Data" xfId="135" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Table Head Top" xfId="136" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Hed Side" xfId="137" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table title" xfId="138" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,9 +1212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1252,9 +1252,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1287,26 +1287,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1339,26 +1322,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1532,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1546,35 +1512,77 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="7"/>
+      <c r="B5" s="8">
+        <v>2009</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="8"/>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1601,14 +1609,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
@@ -1646,8 +1654,8 @@
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>1.5</v>
@@ -1691,8 +1699,8 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>1.2</v>
@@ -1736,8 +1744,8 @@
       <c r="AK3" s="3"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1781,8 +1789,8 @@
       <c r="AK4" s="3"/>
     </row>
     <row r="5" spans="1:37">
-      <c r="A5" s="10" t="s">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1826,8 +1834,8 @@
       <c r="AK5" s="3"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1871,8 +1879,8 @@
       <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="10" t="s">
-        <v>7</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
